--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F13a1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F13a1-Itga4.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>15.64083466666666</v>
+        <v>0.03958866666666667</v>
       </c>
       <c r="H2">
-        <v>46.922504</v>
+        <v>0.118766</v>
       </c>
       <c r="I2">
-        <v>0.1109322123870545</v>
+        <v>0.0007442768123675562</v>
       </c>
       <c r="J2">
-        <v>0.1109322123870544</v>
+        <v>0.0007442768123675561</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N2">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O2">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P2">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q2">
-        <v>370.0606101979244</v>
+        <v>0.005618674301555556</v>
       </c>
       <c r="R2">
-        <v>3330.545491781319</v>
+        <v>0.050568068714</v>
       </c>
       <c r="S2">
-        <v>0.03325741006818349</v>
+        <v>1.922510753668445E-06</v>
       </c>
       <c r="T2">
-        <v>0.03325741006818348</v>
+        <v>1.922510753668444E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>15.64083466666666</v>
+        <v>0.03958866666666667</v>
       </c>
       <c r="H3">
-        <v>46.922504</v>
+        <v>0.118766</v>
       </c>
       <c r="I3">
-        <v>0.1109322123870545</v>
+        <v>0.0007442768123675562</v>
       </c>
       <c r="J3">
-        <v>0.1109322123870544</v>
+        <v>0.0007442768123675561</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q3">
-        <v>1.202868817263111</v>
+        <v>0.003044592802444444</v>
       </c>
       <c r="R3">
-        <v>10.825819355368</v>
+        <v>0.027401335222</v>
       </c>
       <c r="S3">
-        <v>0.0001081020254832151</v>
+        <v>1.041751503841482E-06</v>
       </c>
       <c r="T3">
-        <v>0.0001081020254832151</v>
+        <v>1.041751503841482E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>15.64083466666666</v>
+        <v>0.03958866666666667</v>
       </c>
       <c r="H4">
-        <v>46.922504</v>
+        <v>0.118766</v>
       </c>
       <c r="I4">
-        <v>0.1109322123870545</v>
+        <v>0.0007442768123675562</v>
       </c>
       <c r="J4">
-        <v>0.1109322123870544</v>
+        <v>0.0007442768123675561</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N4">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q4">
-        <v>30.77771121315021</v>
+        <v>0.1034844183686667</v>
       </c>
       <c r="R4">
-        <v>276.9994009183519</v>
+        <v>0.931359765318</v>
       </c>
       <c r="S4">
-        <v>0.002765998148866499</v>
+        <v>3.540869188587881E-05</v>
       </c>
       <c r="T4">
-        <v>0.002765998148866498</v>
+        <v>3.54086918858788E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>15.64083466666666</v>
+        <v>0.03958866666666667</v>
       </c>
       <c r="H5">
-        <v>46.922504</v>
+        <v>0.118766</v>
       </c>
       <c r="I5">
-        <v>0.1109322123870545</v>
+        <v>0.0007442768123675562</v>
       </c>
       <c r="J5">
-        <v>0.1109322123870544</v>
+        <v>0.0007442768123675561</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N5">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q5">
-        <v>832.3195769629768</v>
+        <v>2.063054190986889</v>
       </c>
       <c r="R5">
-        <v>7490.876192666791</v>
+        <v>18.567487718882</v>
       </c>
       <c r="S5">
-        <v>0.07480070214452125</v>
+        <v>0.0007059038582241675</v>
       </c>
       <c r="T5">
-        <v>0.07480070214452125</v>
+        <v>0.0007059038582241674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>0.01988966666666667</v>
       </c>
       <c r="H6">
-        <v>0.05966900000000001</v>
+        <v>0.059669</v>
       </c>
       <c r="I6">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401135</v>
       </c>
       <c r="J6">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401134</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N6">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O6">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P6">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q6">
-        <v>0.4705875575161112</v>
+        <v>0.002822867461222222</v>
       </c>
       <c r="R6">
-        <v>4.235288017645</v>
+        <v>0.025405807151</v>
       </c>
       <c r="S6">
-        <v>4.229178394568289E-05</v>
+        <v>9.658849684307161E-07</v>
       </c>
       <c r="T6">
-        <v>4.229178394568288E-05</v>
+        <v>9.658849684307157E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>0.01988966666666667</v>
       </c>
       <c r="H7">
-        <v>0.05966900000000001</v>
+        <v>0.059669</v>
       </c>
       <c r="I7">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401135</v>
       </c>
       <c r="J7">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401134</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q7">
         <v>0.001529628074777778</v>
@@ -883,10 +883,10 @@
         <v>0.013766652673</v>
       </c>
       <c r="S7">
-        <v>1.37467935610554E-07</v>
+        <v>5.233843901682081E-07</v>
       </c>
       <c r="T7">
-        <v>1.37467935610554E-07</v>
+        <v>5.23384390168208E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>0.01988966666666667</v>
       </c>
       <c r="H8">
-        <v>0.05966900000000001</v>
+        <v>0.059669</v>
       </c>
       <c r="I8">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401135</v>
       </c>
       <c r="J8">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401134</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N8">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q8">
-        <v>0.03913847501355555</v>
+        <v>0.05199140965966666</v>
       </c>
       <c r="R8">
-        <v>0.352246275122</v>
+        <v>0.467922686937</v>
       </c>
       <c r="S8">
-        <v>3.517381415636198E-06</v>
+        <v>1.778961349324304E-05</v>
       </c>
       <c r="T8">
-        <v>3.517381415636197E-06</v>
+        <v>1.778961349324303E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>0.01988966666666667</v>
       </c>
       <c r="H9">
-        <v>0.05966900000000001</v>
+        <v>0.059669</v>
       </c>
       <c r="I9">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401135</v>
       </c>
       <c r="J9">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401134</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N9">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q9">
-        <v>1.058419150815223</v>
+        <v>1.036495129262555</v>
       </c>
       <c r="R9">
-        <v>9.525772357337001</v>
+        <v>9.328456163363001</v>
       </c>
       <c r="S9">
-        <v>9.51203093564964E-05</v>
+        <v>0.0003546518137882715</v>
       </c>
       <c r="T9">
-        <v>9.512030935649639E-05</v>
+        <v>0.0003546518137882714</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>125.3338013333333</v>
+        <v>53.131305</v>
       </c>
       <c r="H10">
-        <v>376.001404</v>
+        <v>159.393915</v>
       </c>
       <c r="I10">
-        <v>0.8889267206702922</v>
+        <v>0.9988817924909924</v>
       </c>
       <c r="J10">
-        <v>0.8889267206702921</v>
+        <v>0.9988817924909923</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N10">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O10">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P10">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q10">
-        <v>2965.385415056202</v>
+        <v>7.540731303865001</v>
       </c>
       <c r="R10">
-        <v>26688.46873550582</v>
+        <v>67.866581734785</v>
       </c>
       <c r="S10">
-        <v>0.2664996923233408</v>
+        <v>0.002580170382574255</v>
       </c>
       <c r="T10">
-        <v>0.2664996923233408</v>
+        <v>0.002580170382574255</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>125.3338013333333</v>
+        <v>53.131305</v>
       </c>
       <c r="H11">
-        <v>376.001404</v>
+        <v>159.393915</v>
       </c>
       <c r="I11">
-        <v>0.8889267206702922</v>
+        <v>0.9988817924909924</v>
       </c>
       <c r="J11">
-        <v>0.8889267206702921</v>
+        <v>0.9988817924909923</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.230717</v>
       </c>
       <c r="O11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q11">
-        <v>9.638879547407555</v>
+        <v>4.086098431895</v>
       </c>
       <c r="R11">
-        <v>86.749915926668</v>
+        <v>36.774885887055</v>
       </c>
       <c r="S11">
-        <v>0.0008662477466448223</v>
+        <v>0.001398117732805949</v>
       </c>
       <c r="T11">
-        <v>0.0008662477466448221</v>
+        <v>0.001398117732805949</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>125.3338013333333</v>
+        <v>53.131305</v>
       </c>
       <c r="H12">
-        <v>376.001404</v>
+        <v>159.393915</v>
       </c>
       <c r="I12">
-        <v>0.8889267206702922</v>
+        <v>0.9988817924909924</v>
       </c>
       <c r="J12">
-        <v>0.8889267206702921</v>
+        <v>0.9988817924909923</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N12">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q12">
-        <v>246.629264031839</v>
+        <v>138.884753088255</v>
       </c>
       <c r="R12">
-        <v>2219.663376286551</v>
+        <v>1249.962777794295</v>
       </c>
       <c r="S12">
-        <v>0.02216461396508602</v>
+        <v>0.0475214288998447</v>
       </c>
       <c r="T12">
-        <v>0.02216461396508601</v>
+        <v>0.0475214288998447</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>125.3338013333333</v>
+        <v>53.131305</v>
       </c>
       <c r="H13">
-        <v>376.001404</v>
+        <v>159.393915</v>
       </c>
       <c r="I13">
-        <v>0.8889267206702922</v>
+        <v>0.9988817924909924</v>
       </c>
       <c r="J13">
-        <v>0.8889267206702921</v>
+        <v>0.9988817924909923</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N13">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q13">
-        <v>6669.578620841832</v>
+        <v>2768.791441646245</v>
       </c>
       <c r="R13">
-        <v>60026.20758757649</v>
+        <v>24919.1229748162</v>
       </c>
       <c r="S13">
-        <v>0.5993961666352206</v>
+        <v>0.9473820754757676</v>
       </c>
       <c r="T13">
-        <v>0.5993961666352206</v>
+        <v>0.9473820754757674</v>
       </c>
     </row>
   </sheetData>
